--- a/public/template-excel/keuanganhaji/pengelolaan/sbssn_rupiah.xlsx
+++ b/public/template-excel/keuanganhaji/pengelolaan/sbssn_rupiah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\keuanganhaji\pengelolaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A70304-9C20-48A7-B85F-6E0DD3571D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE70490-E39F-4737-83E3-4902E2A56640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <t>Mei</t>
   </si>
   <si>
-    <t>Nilai</t>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
